--- a/xlsx/马萨诸塞州_intext.xlsx
+++ b/xlsx/马萨诸塞州_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="595">
   <si>
     <t>马萨诸塞州</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_马萨诸塞州</t>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_马萨诸塞州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E%E5%B7%9E%E6%97%97</t>
   </si>
   <si>
-    <t>麻薩諸塞州州旗</t>
+    <t>麻萨诸塞州州旗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -47,15 +47,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AF%AD</t>
   </si>
   <si>
-    <t>英语</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%8F%AD%E7%89%99%E8%AF%AD</t>
   </si>
   <si>
@@ -65,7 +62,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AA%9E</t>
   </si>
   <si>
-    <t>葡萄牙語</t>
+    <t>葡萄牙语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%AD</t>
@@ -83,7 +80,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93</t>
   </si>
   <si>
-    <t>波士頓</t>
+    <t>波士顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E9%9D%A2%E7%A7%AF%E5%88%97%E8%A1%A8</t>
@@ -131,7 +128,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>共和黨 (美國)</t>
+    <t>共和党 (美国)</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_lieutenant_governors_of_Massachusetts</t>
@@ -161,13 +158,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%8E%89%E8%8E%8E%E7%99%BD%C2%B7%E8%8F%AF%E5%80%AB</t>
   </si>
   <si>
-    <t>伊莉莎白·華倫</t>
+    <t>伊莉莎白·华伦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%B8%BB%E9%BB%A8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>民主黨 (美國)</t>
+    <t>民主党 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E5%BE%B7%E5%8D%8E%C2%B7%E9%A9%AC%E5%9F%BA</t>
@@ -215,7 +212,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ISO_3166-2:US</t>
@@ -227,19 +224,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%9D%B1%E5%8C%97%E9%83%A8</t>
   </si>
   <si>
-    <t>美國東北部</t>
+    <t>美国东北部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD</t>
   </si>
   <si>
-    <t>新英格蘭</t>
+    <t>新英格兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89</t>
@@ -257,19 +254,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%9C%88%E8%8A%B1%E8%99%9F</t>
   </si>
   <si>
-    <t>五月花號</t>
+    <t>五月花号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E5%88%A9%E8%8C%85%E6%96%AF_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>普利茅斯 (麻薩諸塞州)</t>
+    <t>普利茅斯 (麻萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%85%E6%95%99%E5%BE%92</t>
@@ -281,7 +278,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>美國革命</t>
+    <t>美国革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%81%E4%B8%89%E5%B7%9E%E6%AE%96%E6%B0%91%E5%9C%B0</t>
@@ -299,13 +296,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%82%91%C2%B7%E5%A8%81%E5%BB%89%E6%96%AF</t>
   </si>
   <si>
-    <t>羅傑·威廉斯</t>
+    <t>罗杰·威廉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E5%BE%B7%E5%B3%B6%E5%B7%9E</t>
   </si>
   <si>
-    <t>羅德島州</t>
+    <t>罗德岛州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%B6%85%E7%8B%84%E6%A0%BC%E5%B7%9E</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>英國國會</t>
+    <t>英国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%A2%E4%BC%8A%E6%96%AF%E8%B5%B7%E4%B9%89</t>
@@ -329,43 +326,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%B9%E5%A7%86%E6%96%AF%C2%B7%E9%AE%91%E7%99%BB</t>
   </si>
   <si>
-    <t>詹姆斯·鮑登</t>
+    <t>詹姆斯·鲍登</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>塞繆爾·亞當斯</t>
+    <t>塞缪尔·亚当斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B7%AC%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>緬因州</t>
+    <t>缅因州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%89%8B%E6%98%9F%E6%95%A6%E5%92%8C%E5%BA%B7%E7%A7%91%E5%BE%B7%E6%88%B0%E5%BD%B9</t>
   </si>
   <si>
-    <t>列剋星敦和康科德戰役</t>
+    <t>列克星敦和康科德战役</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E5%A1%9E%E7%88%BE%E6%8F%90%E5%85%8B</t>
   </si>
   <si>
-    <t>波士頓塞爾提克</t>
+    <t>波士顿塞尔提克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%B7%9E</t>
   </si>
   <si>
-    <t>新罕布什爾州</t>
+    <t>新罕布什尔州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E8%92%99%E7%89%B9%E5%B7%9E</t>
@@ -377,7 +374,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E</t>
   </si>
   <si>
-    <t>紐約州</t>
+    <t>纽约州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A5%BF%E6%B4%8B</t>
@@ -389,7 +386,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E8%96%A9%E8%91%A1%E8%90%84%E5%9C%92%E5%B3%B6</t>
   </si>
   <si>
-    <t>馬薩葡萄園島</t>
+    <t>马萨葡萄园岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%A1%94%E5%85%8B%E7%89%B9</t>
@@ -425,13 +422,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E7%88%BE%E6%96%AF%E9%A0%93_(%E6%B3%A2%E5%A3%AB%E9%A0%93)</t>
   </si>
   <si>
-    <t>查爾斯頓 (波士頓)</t>
+    <t>查尔斯顿 (波士顿)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%9F%8E</t>
   </si>
   <si>
-    <t>中國城</t>
+    <t>中国城</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B3%A2%E5%A3%AB%E9%A1%BF</t>
@@ -449,19 +446,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%8D%E6%A9%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>劍橋大學</t>
+    <t>剑桥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈佛大學</t>
+    <t>哈佛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%81%B5%E9%A1%BF_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -473,7 +470,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E7%88%BE%E8%92%99_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>貝爾蒙 (麻薩諸塞州)</t>
+    <t>贝尔蒙 (麻萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E9%B2%81%E5%85%8B%E8%8E%B1%E6%81%A9_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -509,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B4%E9%8E%AE</t>
   </si>
   <si>
-    <t>水鎮</t>
+    <t>水镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E5%B0%94%E7%91%9F%E5%A7%86_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -521,7 +518,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E6%9C%AC_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃本 (麻薩諸塞州)</t>
+    <t>沃本 (麻萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E4%BC%A6%E7%89%B9%E9%87%8C_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -545,7 +542,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E7%88%BE%E6%96%AF%E5%88%A9_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>韋爾斯利 (麻薩諸塞州)</t>
+    <t>韦尔斯利 (麻萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%98%8E%E7%BF%B0</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%BE%B7%E7%A6%8F%E5%BE%B7</t>
   </si>
   <si>
-    <t>貝德福德</t>
+    <t>贝德福德</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%8B%92%E5%A7%86_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -623,7 +620,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%89%B9%E7%88%BE%E4%BC%AF%E5%8B%92</t>
   </si>
   <si>
-    <t>阿特爾伯勒</t>
+    <t>阿特尔伯勒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E7%BD%97%E5%85%8B%E9%A1%BF_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -671,7 +668,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9A%AE%E8%8C%A8%E8%8F%B2%E7%88%BE%E5%BE%B7_(%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>皮茨菲爾德 (馬薩諸塞州)</t>
+    <t>皮茨菲尔德 (马萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E6%96%AF%E6%95%A6_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8E%AE</t>
   </si>
   <si>
-    <t>鎮</t>
+    <t>镇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A1</t>
@@ -725,57 +722,54 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E4%BA%BA%E5%8F%A3%E8%AA%BF%E6%9F%A5%E5%B1%80</t>
   </si>
   <si>
-    <t>美國人口調查局</t>
+    <t>美国人口调查局</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%B3%E5%BE%B7%E7%88%BE%E5%A1%9E%E5%85%8B%E6%96%AF%E7%B8%A3_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>米德爾塞克斯縣 (麻薩諸塞州)</t>
+    <t>米德尔塞克斯县 (麻萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%A0%B9%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>羅根國際機場</t>
+    <t>罗根国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/90%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>90號州際公路</t>
+    <t>90号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/91%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>91號州際公路</t>
+    <t>91号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/93%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>93號州際公路</t>
+    <t>93号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/95%E8%99%9F%E5%B7%9E%E9%9A%9B%E5%85%AC%E8%B7%AF</t>
   </si>
   <si>
-    <t>95號州際公路</t>
+    <t>95号州际公路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E7%93%A6%E7%88%BE%C2%B7%E5%B8%95%E7%89%B9%E9%87%8C%E5%85%8B</t>
   </si>
   <si>
-    <t>德瓦爾·帕特里克</t>
+    <t>德瓦尔·帕特里克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>美國眾議院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82</t>
   </si>
   <si>
@@ -785,13 +779,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>市議會</t>
+    <t>市议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E9%95%B7</t>
   </si>
   <si>
-    <t>市長</t>
+    <t>市长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2003%E5%B9%B411%E6%9C%88</t>
@@ -827,79 +821,79 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1890%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1890年人口普查</t>
+    <t>美国1890年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1900%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1900年人口普查</t>
+    <t>美国1900年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1910%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1910年人口普查</t>
+    <t>美国1910年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1920%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1920年人口普查</t>
+    <t>美国1920年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1930%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1930年人口普查</t>
+    <t>美国1930年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1940%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1940年人口普查</t>
+    <t>美国1940年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1950%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1950年人口普查</t>
+    <t>美国1950年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1960%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1960年人口普查</t>
+    <t>美国1960年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1970%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1970年人口普查</t>
+    <t>美国1970年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1980%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1980年人口普查</t>
+    <t>美国1980年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B1990%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國1990年人口普查</t>
+    <t>美国1990年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2000%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2000年人口普查</t>
+    <t>美国2000年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B2010%E5%B9%B4%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
   </si>
   <si>
-    <t>美國2010年人口普查</t>
+    <t>美国2010年人口普查</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A1%BF%E5%AD%A6%E9%99%A2</t>
@@ -917,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%A9%B6%E5%9E%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>研究型大學</t>
+    <t>研究型大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E6%98%A5%E8%97%A4%E7%9B%9F%E6%A0%A1</t>
@@ -929,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%83%E5%A7%8A%E5%A6%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>七姊妹學院</t>
+    <t>七姊妹学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E8%8D%B7%E8%8E%B2%E5%AD%A6%E9%99%A2</t>
@@ -941,13 +935,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%AF%86%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史密斯學院</t>
+    <t>史密斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%9B%E6%96%AF%E7%90%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>衛斯理學院</t>
+    <t>卫斯理学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E6%96%AF%E7%89%B9%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -959,19 +953,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E9%BB%98%E6%96%AF%E7%89%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>安默斯特學院</t>
+    <t>安默斯特学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%95%E5%B8%83%E4%BB%80%E7%88%BE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>罕布什爾學院</t>
+    <t>罕布什尔学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E5%B7%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>麻州大學</t>
+    <t>麻州大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%A4%A7%E5%AD%A6%E9%98%BF%E9%BB%98%E6%96%AF%E7%89%B9%E5%88%86%E6%A0%A1</t>
@@ -983,13 +977,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%A3%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>威廉士學院</t>
+    <t>威廉士学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E5%88%A9%E9%9F%B3%E6%A8%82%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>伯克利音樂學院</t>
+    <t>伯克利音乐学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%85%B9%E9%9C%8D%E5%B0%94%E6%B5%B7%E6%B4%8B%E7%A0%94%E7%A9%B6%E6%89%80</t>
@@ -1001,13 +995,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·亞當斯</t>
+    <t>约翰·亚当斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E6%98%86%E8%A5%BF%C2%B7%E4%BA%9E%E7%95%B6%E6%96%AF</t>
   </si>
   <si>
-    <t>約翰·昆西·亞當斯</t>
+    <t>约翰·昆西·亚当斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E5%B4%94%E7%89%B9%C2%B7%E6%BD%98%E6%81%A9</t>
@@ -1019,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E7%94%98%E8%BF%BA%E8%BF%AA</t>
   </si>
   <si>
-    <t>約翰·甘迺迪</t>
+    <t>约翰·甘迺迪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%82%AF%E5%B0%BC%E8%BF%AA</t>
@@ -1037,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%C2%B7%E8%B5%AB%E4%BC%AF%E7%89%B9%C2%B7%E6%B2%83%E5%85%8B%C2%B7%E5%B8%83%E4%BB%80</t>
   </si>
   <si>
-    <t>喬治·赫伯特·沃克·布什</t>
+    <t>乔治·赫伯特·沃克·布什</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Patrick_Kennedy</t>
@@ -1055,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E7%8F%8A%C2%B7%E5%AE%89%E6%9D%B1%E5%B0%BC</t>
   </si>
   <si>
-    <t>蘇珊·安東尼</t>
+    <t>苏珊·安东尼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E7%B1%B3%E8%8E%89%C2%B7%E8%BF%AA%E6%9B%B4%E7%94%9F</t>
@@ -1067,13 +1061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%87%B1%E7%91%9E</t>
   </si>
   <si>
-    <t>約翰·凱瑞</t>
+    <t>约翰·凯瑞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%BB%A3%E5%A4%9A</t>
   </si>
   <si>
-    <t>史廣多</t>
+    <t>史广多</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E9%93%81%E5%8C%A0%E4%B9%90%E9%98%9F</t>
@@ -1085,13 +1079,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%C2%B7%E5%B8%8C%E5%8D%97</t>
   </si>
   <si>
-    <t>約翰·希南</t>
+    <t>约翰·希南</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%91%94%E8%A7%92%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>世界摔角娛樂</t>
+    <t>世界摔角娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NFL</t>
@@ -1115,19 +1109,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%81%B7%E6%A3%92%E5%A4%A7%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>美國職棒大聯盟</t>
+    <t>美国职棒大联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E7%B4%85%E8%A5%AA</t>
   </si>
   <si>
-    <t>波士頓紅襪</t>
+    <t>波士顿红袜</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>小聯盟</t>
+    <t>小联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -1139,7 +1133,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>麻薩諸塞大學</t>
+    <t>麻萨诸塞大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MLS</t>
@@ -1151,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>新英格蘭革命</t>
+    <t>新英格兰革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NHL</t>
@@ -1163,7 +1157,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E9%A0%93%E6%A3%95%E7%86%8A</t>
   </si>
   <si>
-    <t>波士頓棕熊</t>
+    <t>波士顿棕熊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/United_States_Census_Bureau</t>
@@ -1277,7 +1271,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E7%89%B9%E6%BC%A2%E6%99%AE%E9%A0%93_(%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>伊斯特漢普頓 (馬薩諸塞州)</t>
+    <t>伊斯特汉普顿 (马萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%BC%97%E9%87%8C%E7%89%B9_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -1325,7 +1319,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%83%E7%89%B9%E6%95%A6_(%E9%A6%AC%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>沃特敦 (馬薩諸塞州)</t>
+    <t>沃特敦 (马萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%AF%E6%99%AE%E6%9E%97%E8%8F%B2%E5%B0%94%E5%BE%B7_(%E9%A9%AC%E8%90%A8%E8%AF%B8%E5%A1%9E%E5%B7%9E)</t>
@@ -1343,7 +1337,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%8B%E8%8C%85%E6%96%AF_(%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>韋茅斯 (麻薩諸塞州)</t>
+    <t>韦茅斯 (麻萨诸塞州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9B%BD%E8%A1%8C%E6%94%BF%E5%8C%BA%E5%88%92</t>
@@ -1355,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E8%A1%8C%E6%94%BF%E5%8D%80%E5%8A%83</t>
   </si>
   <si>
-    <t>美國行政區劃</t>
+    <t>美国行政区划</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E</t>
@@ -1373,7 +1367,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E</t>
   </si>
   <si>
-    <t>亞利桑那州</t>
+    <t>亚利桑那州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -1391,7 +1385,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E5%B7%9E</t>
   </si>
   <si>
-    <t>科羅拉多州</t>
+    <t>科罗拉多州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E4%B9%83%E7%8B%84%E5%85%8B%E5%B7%9E</t>
@@ -1415,7 +1409,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>喬治亞州</t>
+    <t>乔治亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E5%A8%81%E5%A4%B7%E5%B7%9E</t>
@@ -1451,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E</t>
   </si>
   <si>
-    <t>堪薩斯州</t>
+    <t>堪萨斯州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -1469,9 +1463,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BC%85%E5%9B%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>缅因州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E9%87%8C%E5%85%B0%E5%B7%9E</t>
   </si>
   <si>
@@ -1487,7 +1478,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E8%A5%BF%E6%AF%94%E5%B7%9E</t>
@@ -1499,7 +1490,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E5%B7%9E</t>
   </si>
   <si>
-    <t>密蘇里州</t>
+    <t>密苏里州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%B7%9E</t>
@@ -1511,7 +1502,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E5%B8%83%E6%8B%89%E6%96%AF%E5%8A%A0%E5%B7%9E</t>
   </si>
   <si>
-    <t>內布拉斯加州</t>
+    <t>内布拉斯加州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E5%8D%8E%E8%BE%BE%E5%B7%9E</t>
@@ -1523,9 +1514,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%BD%95%E5%B8%83%E4%BB%80%E5%B0%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>新罕布什尔州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%B3%BD%E8%A5%BF%E5%B7%9E</t>
   </si>
   <si>
@@ -1541,9 +1529,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
   </si>
   <si>
-    <t>纽约州</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E</t>
   </si>
   <si>
@@ -1565,7 +1550,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A5%A7%E5%85%8B%E6%8B%89%E8%8D%B7%E9%A6%AC%E5%B7%9E</t>
   </si>
   <si>
-    <t>奧克拉荷馬州</t>
+    <t>奥克拉荷马州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%86%88%E5%B7%9E</t>
@@ -1625,7 +1610,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E7%B6%AD%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>西維吉尼亞州</t>
+    <t>西维吉尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E8%BE%9B%E5%B7%9E</t>
@@ -1643,7 +1628,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>聯邦地區</t>
+    <t>联邦地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E7%9B%9B%E9%A1%BF%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A%E7%89%B9%E5%8C%BA</t>
@@ -1655,19 +1640,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B3%B6%E5%B6%BC%E5%9C%B0%E5%8D%80</t>
   </si>
   <si>
-    <t>島嶼地區</t>
+    <t>岛屿地区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E8%96%A9%E6%91%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>美屬薩摩亞</t>
+    <t>美属萨摩亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%97%9C%E5%B3%B6</t>
   </si>
   <si>
-    <t>關島</t>
+    <t>关岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E9%A9%AC%E9%87%8C%E4%BA%9A%E7%BA%B3%E7%BE%A4%E5%B2%9B</t>
@@ -1685,7 +1670,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%B1%AC%E7%B6%AD%E7%88%BE%E4%BA%AC%E7%BE%A4%E5%B3%B6</t>
   </si>
   <si>
-    <t>美屬維爾京群島</t>
+    <t>美属维尔京群岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E6%9C%AC%E5%9C%9F%E5%A4%96%E5%B0%8F%E5%B2%9B%E5%B1%BF</t>
@@ -1697,7 +1682,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>威克島</t>
+    <t>威克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%E6%96%AF%E9%A1%BF%E7%8E%AF%E7%A4%81</t>
@@ -1709,7 +1694,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%94%E5%B3%B6</t>
   </si>
   <si>
-    <t>中途島</t>
+    <t>中途岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E6%9B%BC%E7%A4%81</t>
@@ -1721,25 +1706,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%95%E9%82%81%E6%8B%89%E7%92%B0%E7%A4%81</t>
   </si>
   <si>
-    <t>帕邁拉環礁</t>
+    <t>帕迈拉环礁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%88%E7%B6%AD%E6%96%AF%E5%B3%B6</t>
   </si>
   <si>
-    <t>賈維斯島</t>
+    <t>贾维斯岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%9D%E5%85%8B%E5%B3%B6</t>
   </si>
   <si>
-    <t>貝克島</t>
+    <t>贝克岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%AA%E8%98%AD%E5%B3%B6</t>
   </si>
   <si>
-    <t>豪蘭島</t>
+    <t>豪兰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E7%93%A6%E8%90%A8%E5%B2%9B</t>
@@ -1769,7 +1754,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1787,7 +1772,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1805,7 +1790,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E8%96%A9%E8%AB%B8%E5%A1%9E%E5%B7%9E</t>
@@ -2330,7 +2315,7 @@
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
         <v>9</v>
@@ -2356,10 +2341,10 @@
         <v>6</v>
       </c>
       <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
         <v>13</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
       </c>
       <c r="G7" t="n">
         <v>1</v>
@@ -2385,10 +2370,10 @@
         <v>7</v>
       </c>
       <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
         <v>15</v>
-      </c>
-      <c r="F8" t="s">
-        <v>16</v>
       </c>
       <c r="G8" t="n">
         <v>1</v>
@@ -2414,10 +2399,10 @@
         <v>8</v>
       </c>
       <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
         <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
       </c>
       <c r="G9" t="n">
         <v>1</v>
@@ -2443,10 +2428,10 @@
         <v>9</v>
       </c>
       <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
         <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
       </c>
       <c r="G10" t="n">
         <v>4</v>
@@ -2472,10 +2457,10 @@
         <v>10</v>
       </c>
       <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" t="s">
         <v>21</v>
-      </c>
-      <c r="F11" t="s">
-        <v>22</v>
       </c>
       <c r="G11" t="n">
         <v>29</v>
@@ -2501,10 +2486,10 @@
         <v>11</v>
       </c>
       <c r="E12" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" t="s">
         <v>23</v>
-      </c>
-      <c r="F12" t="s">
-        <v>24</v>
       </c>
       <c r="G12" t="n">
         <v>1</v>
@@ -2530,10 +2515,10 @@
         <v>12</v>
       </c>
       <c r="E13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" t="s">
         <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
       </c>
       <c r="G13" t="n">
         <v>1</v>
@@ -2559,10 +2544,10 @@
         <v>13</v>
       </c>
       <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
         <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>28</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -2588,10 +2573,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -2617,10 +2602,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>2</v>
@@ -2646,10 +2631,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -2675,10 +2660,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2704,10 +2689,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>43</v>
@@ -2733,10 +2718,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2762,10 +2747,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2791,10 +2776,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>1</v>
@@ -2820,10 +2805,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2849,10 +2834,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -2878,10 +2863,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>32</v>
@@ -2907,10 +2892,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>1</v>
@@ -2936,10 +2921,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -2965,10 +2950,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -2994,10 +2979,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -3023,10 +3008,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -3052,10 +3037,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -3081,10 +3066,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -3110,10 +3095,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -3139,10 +3124,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -3168,10 +3153,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -3197,10 +3182,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>114</v>
@@ -3226,10 +3211,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>8</v>
@@ -3255,10 +3240,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -3284,10 +3269,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -3313,10 +3298,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>6</v>
@@ -3342,10 +3327,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -3371,10 +3356,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>3</v>
@@ -3400,10 +3385,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -3429,10 +3414,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -3458,10 +3443,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -3487,10 +3472,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>2</v>
@@ -3516,10 +3501,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3545,10 +3530,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>94</v>
+      </c>
+      <c r="F48" t="s">
         <v>95</v>
-      </c>
-      <c r="F48" t="s">
-        <v>96</v>
       </c>
       <c r="G48" t="n">
         <v>3</v>
@@ -3574,10 +3559,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
         <v>97</v>
-      </c>
-      <c r="F49" t="s">
-        <v>98</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -3603,10 +3588,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>98</v>
+      </c>
+      <c r="F50" t="s">
         <v>99</v>
-      </c>
-      <c r="F50" t="s">
-        <v>100</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3632,10 +3617,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>100</v>
+      </c>
+      <c r="F51" t="s">
         <v>101</v>
-      </c>
-      <c r="F51" t="s">
-        <v>102</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3661,10 +3646,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
         <v>103</v>
-      </c>
-      <c r="F52" t="s">
-        <v>104</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3690,10 +3675,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
         <v>105</v>
-      </c>
-      <c r="F53" t="s">
-        <v>106</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3719,10 +3704,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>106</v>
+      </c>
+      <c r="F54" t="s">
         <v>107</v>
-      </c>
-      <c r="F54" t="s">
-        <v>108</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -3748,10 +3733,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>108</v>
+      </c>
+      <c r="F55" t="s">
         <v>109</v>
-      </c>
-      <c r="F55" t="s">
-        <v>110</v>
       </c>
       <c r="G55" t="n">
         <v>3</v>
@@ -3777,10 +3762,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>110</v>
+      </c>
+      <c r="F56" t="s">
         <v>111</v>
-      </c>
-      <c r="F56" t="s">
-        <v>112</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3806,10 +3791,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>112</v>
+      </c>
+      <c r="F57" t="s">
         <v>113</v>
-      </c>
-      <c r="F57" t="s">
-        <v>114</v>
       </c>
       <c r="G57" t="n">
         <v>2</v>
@@ -3835,10 +3820,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
         <v>115</v>
-      </c>
-      <c r="F58" t="s">
-        <v>116</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3864,10 +3849,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>116</v>
+      </c>
+      <c r="F59" t="s">
         <v>117</v>
-      </c>
-      <c r="F59" t="s">
-        <v>118</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3893,10 +3878,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" t="s">
         <v>119</v>
-      </c>
-      <c r="F60" t="s">
-        <v>120</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3922,10 +3907,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
         <v>121</v>
-      </c>
-      <c r="F61" t="s">
-        <v>122</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3951,10 +3936,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>122</v>
+      </c>
+      <c r="F62" t="s">
         <v>123</v>
-      </c>
-      <c r="F62" t="s">
-        <v>124</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3980,10 +3965,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>124</v>
+      </c>
+      <c r="F63" t="s">
         <v>125</v>
-      </c>
-      <c r="F63" t="s">
-        <v>126</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -4009,10 +3994,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64" t="s">
         <v>127</v>
-      </c>
-      <c r="F64" t="s">
-        <v>128</v>
       </c>
       <c r="G64" t="n">
         <v>4</v>
@@ -4038,10 +4023,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>128</v>
+      </c>
+      <c r="F65" t="s">
         <v>129</v>
-      </c>
-      <c r="F65" t="s">
-        <v>130</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -4067,10 +4052,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>130</v>
+      </c>
+      <c r="F66" t="s">
         <v>131</v>
-      </c>
-      <c r="F66" t="s">
-        <v>132</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -4096,10 +4081,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>132</v>
+      </c>
+      <c r="F67" t="s">
         <v>133</v>
-      </c>
-      <c r="F67" t="s">
-        <v>134</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -4125,10 +4110,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>134</v>
+      </c>
+      <c r="F68" t="s">
         <v>135</v>
-      </c>
-      <c r="F68" t="s">
-        <v>136</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -4154,10 +4139,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>136</v>
+      </c>
+      <c r="F69" t="s">
         <v>137</v>
-      </c>
-      <c r="F69" t="s">
-        <v>138</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -4183,10 +4168,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" t="s">
         <v>139</v>
-      </c>
-      <c r="F70" t="s">
-        <v>140</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -4212,10 +4197,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>140</v>
+      </c>
+      <c r="F71" t="s">
         <v>141</v>
-      </c>
-      <c r="F71" t="s">
-        <v>142</v>
       </c>
       <c r="G71" t="n">
         <v>3</v>
@@ -4241,10 +4226,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>142</v>
+      </c>
+      <c r="F72" t="s">
         <v>143</v>
-      </c>
-      <c r="F72" t="s">
-        <v>144</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -4270,10 +4255,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>144</v>
+      </c>
+      <c r="F73" t="s">
         <v>145</v>
-      </c>
-      <c r="F73" t="s">
-        <v>146</v>
       </c>
       <c r="G73" t="n">
         <v>4</v>
@@ -4299,10 +4284,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>146</v>
+      </c>
+      <c r="F74" t="s">
         <v>147</v>
-      </c>
-      <c r="F74" t="s">
-        <v>148</v>
       </c>
       <c r="G74" t="n">
         <v>3</v>
@@ -4328,10 +4313,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>148</v>
+      </c>
+      <c r="F75" t="s">
         <v>149</v>
-      </c>
-      <c r="F75" t="s">
-        <v>150</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -4357,10 +4342,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>150</v>
+      </c>
+      <c r="F76" t="s">
         <v>151</v>
-      </c>
-      <c r="F76" t="s">
-        <v>152</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -4386,10 +4371,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>152</v>
+      </c>
+      <c r="F77" t="s">
         <v>153</v>
-      </c>
-      <c r="F77" t="s">
-        <v>154</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -4415,10 +4400,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>154</v>
+      </c>
+      <c r="F78" t="s">
         <v>155</v>
-      </c>
-      <c r="F78" t="s">
-        <v>156</v>
       </c>
       <c r="G78" t="n">
         <v>2</v>
@@ -4444,10 +4429,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -4473,10 +4458,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>3</v>
@@ -4502,10 +4487,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4531,10 +4516,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4560,10 +4545,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4589,10 +4574,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>2</v>
@@ -4618,10 +4603,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4647,10 +4632,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -4676,10 +4661,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4705,10 +4690,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4734,10 +4719,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4763,10 +4748,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4792,10 +4777,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>2</v>
@@ -4821,10 +4806,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4850,10 +4835,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>2</v>
@@ -4879,10 +4864,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4908,10 +4893,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4937,10 +4922,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4966,10 +4951,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4995,10 +4980,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>3</v>
@@ -5024,10 +5009,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>2</v>
@@ -5053,10 +5038,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -5082,10 +5067,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>200</v>
+      </c>
+      <c r="F101" t="s">
         <v>201</v>
-      </c>
-      <c r="F101" t="s">
-        <v>202</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -5111,10 +5096,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>202</v>
+      </c>
+      <c r="F102" t="s">
         <v>203</v>
-      </c>
-      <c r="F102" t="s">
-        <v>204</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -5140,10 +5125,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>204</v>
+      </c>
+      <c r="F103" t="s">
         <v>205</v>
-      </c>
-      <c r="F103" t="s">
-        <v>206</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -5169,10 +5154,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>206</v>
+      </c>
+      <c r="F104" t="s">
         <v>207</v>
-      </c>
-      <c r="F104" t="s">
-        <v>208</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5198,10 +5183,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>208</v>
+      </c>
+      <c r="F105" t="s">
         <v>209</v>
-      </c>
-      <c r="F105" t="s">
-        <v>210</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -5227,10 +5212,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>210</v>
+      </c>
+      <c r="F106" t="s">
         <v>211</v>
-      </c>
-      <c r="F106" t="s">
-        <v>212</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5256,10 +5241,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>212</v>
+      </c>
+      <c r="F107" t="s">
         <v>213</v>
-      </c>
-      <c r="F107" t="s">
-        <v>214</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -5285,10 +5270,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>214</v>
+      </c>
+      <c r="F108" t="s">
         <v>215</v>
-      </c>
-      <c r="F108" t="s">
-        <v>216</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -5314,10 +5299,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>216</v>
+      </c>
+      <c r="F109" t="s">
         <v>217</v>
-      </c>
-      <c r="F109" t="s">
-        <v>218</v>
       </c>
       <c r="G109" t="n">
         <v>2</v>
@@ -5343,10 +5328,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>218</v>
+      </c>
+      <c r="F110" t="s">
         <v>219</v>
-      </c>
-      <c r="F110" t="s">
-        <v>220</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5372,10 +5357,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>220</v>
+      </c>
+      <c r="F111" t="s">
         <v>221</v>
-      </c>
-      <c r="F111" t="s">
-        <v>222</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5401,10 +5386,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>222</v>
+      </c>
+      <c r="F112" t="s">
         <v>223</v>
-      </c>
-      <c r="F112" t="s">
-        <v>224</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5430,10 +5415,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>224</v>
+      </c>
+      <c r="F113" t="s">
         <v>225</v>
-      </c>
-      <c r="F113" t="s">
-        <v>226</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5459,10 +5444,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>226</v>
+      </c>
+      <c r="F114" t="s">
         <v>227</v>
-      </c>
-      <c r="F114" t="s">
-        <v>228</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5488,10 +5473,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>228</v>
+      </c>
+      <c r="F115" t="s">
         <v>229</v>
-      </c>
-      <c r="F115" t="s">
-        <v>230</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -5517,10 +5502,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>124</v>
+      </c>
+      <c r="F116" t="s">
         <v>125</v>
-      </c>
-      <c r="F116" t="s">
-        <v>126</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5546,10 +5531,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>230</v>
+      </c>
+      <c r="F117" t="s">
         <v>231</v>
-      </c>
-      <c r="F117" t="s">
-        <v>232</v>
       </c>
       <c r="G117" t="n">
         <v>33</v>
@@ -5575,10 +5560,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>232</v>
+      </c>
+      <c r="F118" t="s">
         <v>233</v>
-      </c>
-      <c r="F118" t="s">
-        <v>234</v>
       </c>
       <c r="G118" t="n">
         <v>24</v>
@@ -5604,10 +5589,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>234</v>
+      </c>
+      <c r="F119" t="s">
         <v>235</v>
-      </c>
-      <c r="F119" t="s">
-        <v>236</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5633,10 +5618,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>236</v>
+      </c>
+      <c r="F120" t="s">
         <v>237</v>
-      </c>
-      <c r="F120" t="s">
-        <v>238</v>
       </c>
       <c r="G120" t="n">
         <v>2</v>
@@ -5662,10 +5647,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>238</v>
+      </c>
+      <c r="F121" t="s">
         <v>239</v>
-      </c>
-      <c r="F121" t="s">
-        <v>240</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -5691,10 +5676,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>240</v>
+      </c>
+      <c r="F122" t="s">
         <v>241</v>
-      </c>
-      <c r="F122" t="s">
-        <v>242</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5720,10 +5705,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>242</v>
+      </c>
+      <c r="F123" t="s">
         <v>243</v>
-      </c>
-      <c r="F123" t="s">
-        <v>244</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5749,10 +5734,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>244</v>
+      </c>
+      <c r="F124" t="s">
         <v>245</v>
-      </c>
-      <c r="F124" t="s">
-        <v>246</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5778,10 +5763,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>246</v>
+      </c>
+      <c r="F125" t="s">
         <v>247</v>
-      </c>
-      <c r="F125" t="s">
-        <v>248</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5807,10 +5792,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>248</v>
+      </c>
+      <c r="F126" t="s">
         <v>249</v>
-      </c>
-      <c r="F126" t="s">
-        <v>250</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5836,10 +5821,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>48</v>
+      </c>
+      <c r="F127" t="s">
         <v>49</v>
-      </c>
-      <c r="F127" t="s">
-        <v>50</v>
       </c>
       <c r="G127" t="n">
         <v>2</v>
@@ -5865,10 +5850,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>36</v>
+      </c>
+      <c r="F128" t="s">
         <v>37</v>
-      </c>
-      <c r="F128" t="s">
-        <v>38</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5894,10 +5879,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>53</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5923,10 +5908,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>25</v>
@@ -5952,10 +5937,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5981,10 +5966,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -6010,10 +5995,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6039,10 +6024,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6068,10 +6053,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6097,10 +6082,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6126,10 +6111,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6155,10 +6140,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6184,10 +6169,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6213,10 +6198,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6242,10 +6227,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6271,10 +6256,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -6300,10 +6285,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6329,10 +6314,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -6358,10 +6343,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -6387,10 +6372,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6416,10 +6401,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6445,10 +6430,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -6474,10 +6459,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -6503,10 +6488,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -6532,10 +6517,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -6561,10 +6546,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6590,10 +6575,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6619,10 +6604,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6648,10 +6633,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6677,10 +6662,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6706,10 +6691,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6735,10 +6720,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6764,10 +6749,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6793,10 +6778,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6822,10 +6807,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6851,10 +6836,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6880,10 +6865,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -6909,10 +6894,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6938,10 +6923,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6967,10 +6952,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6996,10 +6981,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7025,10 +7010,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7054,10 +7039,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7083,10 +7068,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7112,10 +7097,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7141,10 +7126,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7170,10 +7155,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7199,10 +7184,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7228,10 +7213,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7257,10 +7242,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="F176" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -7286,10 +7271,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F177" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7315,10 +7300,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F178" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7344,10 +7329,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F179" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7373,10 +7358,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F180" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7402,10 +7387,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F181" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7431,10 +7416,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F182" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7460,10 +7445,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="F183" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -7489,10 +7474,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F184" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="G184" t="n">
         <v>1</v>
@@ -7518,10 +7503,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F185" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -7547,10 +7532,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F186" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="G186" t="n">
         <v>3</v>
@@ -7576,10 +7561,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7605,10 +7590,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F188" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="G188" t="n">
         <v>2</v>
@@ -7634,10 +7619,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F189" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -7663,10 +7648,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F190" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -7692,10 +7677,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F191" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7721,10 +7706,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7750,10 +7735,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F193" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7779,10 +7764,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F194" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7808,10 +7793,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F195" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7837,10 +7822,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F196" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="G196" t="n">
         <v>4</v>
@@ -7866,10 +7851,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="G197" t="n">
         <v>2</v>
@@ -7895,10 +7880,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F198" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7924,10 +7909,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F199" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7953,10 +7938,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F200" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -7982,10 +7967,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F201" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8011,10 +7996,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F202" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8040,10 +8025,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F203" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8069,10 +8054,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F204" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8098,10 +8083,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8127,10 +8112,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F206" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8156,10 +8141,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F207" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8185,10 +8170,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F208" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8214,10 +8199,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F209" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8243,10 +8228,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F210" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8272,10 +8257,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="F211" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -8301,10 +8286,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>220</v>
+      </c>
+      <c r="F212" t="s">
         <v>221</v>
-      </c>
-      <c r="F212" t="s">
-        <v>222</v>
       </c>
       <c r="G212" t="n">
         <v>2</v>
@@ -8330,10 +8315,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>202</v>
+      </c>
+      <c r="F213" t="s">
         <v>203</v>
-      </c>
-      <c r="F213" t="s">
-        <v>204</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -8359,10 +8344,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
+        <v>168</v>
+      </c>
+      <c r="F214" t="s">
         <v>169</v>
-      </c>
-      <c r="F214" t="s">
-        <v>170</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8388,10 +8373,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
+        <v>140</v>
+      </c>
+      <c r="F215" t="s">
         <v>141</v>
-      </c>
-      <c r="F215" t="s">
-        <v>142</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8417,10 +8402,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8446,10 +8431,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -8475,10 +8460,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -8504,10 +8489,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8533,10 +8518,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
+        <v>204</v>
+      </c>
+      <c r="F220" t="s">
         <v>205</v>
-      </c>
-      <c r="F220" t="s">
-        <v>206</v>
       </c>
       <c r="G220" t="n">
         <v>1</v>
@@ -8562,10 +8547,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F221" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G221" t="n">
         <v>2</v>
@@ -8591,10 +8576,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8620,10 +8605,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F223" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8649,10 +8634,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
+        <v>186</v>
+      </c>
+      <c r="F224" t="s">
         <v>187</v>
-      </c>
-      <c r="F224" t="s">
-        <v>188</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8678,10 +8663,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
+        <v>214</v>
+      </c>
+      <c r="F225" t="s">
         <v>215</v>
-      </c>
-      <c r="F225" t="s">
-        <v>216</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8707,10 +8692,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
+        <v>190</v>
+      </c>
+      <c r="F226" t="s">
         <v>191</v>
-      </c>
-      <c r="F226" t="s">
-        <v>192</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8736,10 +8721,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
+        <v>188</v>
+      </c>
+      <c r="F227" t="s">
         <v>189</v>
-      </c>
-      <c r="F227" t="s">
-        <v>190</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8765,10 +8750,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
+        <v>206</v>
+      </c>
+      <c r="F228" t="s">
         <v>207</v>
-      </c>
-      <c r="F228" t="s">
-        <v>208</v>
       </c>
       <c r="G228" t="n">
         <v>1</v>
@@ -8794,10 +8779,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="F229" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -8823,10 +8808,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
+        <v>156</v>
+      </c>
+      <c r="F230" t="s">
         <v>157</v>
-      </c>
-      <c r="F230" t="s">
-        <v>158</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8852,10 +8837,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F231" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8881,10 +8866,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="F232" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -8910,10 +8895,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
+        <v>210</v>
+      </c>
+      <c r="F233" t="s">
         <v>211</v>
-      </c>
-      <c r="F233" t="s">
-        <v>212</v>
       </c>
       <c r="G233" t="n">
         <v>2</v>
@@ -8939,10 +8924,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
+        <v>160</v>
+      </c>
+      <c r="F234" t="s">
         <v>161</v>
-      </c>
-      <c r="F234" t="s">
-        <v>162</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -8968,10 +8953,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
+        <v>208</v>
+      </c>
+      <c r="F235" t="s">
         <v>209</v>
-      </c>
-      <c r="F235" t="s">
-        <v>210</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -8997,10 +8982,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="F236" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9026,10 +9011,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="F237" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9055,10 +9040,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="F238" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9084,10 +9069,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="F239" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9113,10 +9098,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="F240" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G240" t="n">
         <v>3</v>
@@ -9142,10 +9127,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F241" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9171,10 +9156,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="F242" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9200,10 +9185,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="F243" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="G243" t="n">
         <v>2</v>
@@ -9229,10 +9214,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="F244" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9258,10 +9243,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F245" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9287,10 +9272,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="F246" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9316,10 +9301,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F247" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9345,10 +9330,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F248" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9374,10 +9359,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F249" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9403,10 +9388,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F250" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9432,10 +9417,10 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F251" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G251" t="n">
         <v>1</v>
@@ -9461,10 +9446,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F252" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9490,10 +9475,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="F253" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9519,10 +9504,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="F254" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -9548,10 +9533,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="F255" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -9577,10 +9562,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F256" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -9606,10 +9591,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F257" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9635,10 +9620,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F258" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9664,10 +9649,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F259" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9693,10 +9678,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F260" t="s">
-        <v>484</v>
+        <v>109</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9722,10 +9707,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F261" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9751,10 +9736,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="F262" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9780,10 +9765,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9809,10 +9794,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F264" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="G264" t="n">
         <v>1</v>
@@ -9838,10 +9823,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F265" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="G265" t="n">
         <v>1</v>
@@ -9867,10 +9852,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F266" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G266" t="n">
         <v>1</v>
@@ -9896,10 +9881,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="F267" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -9925,10 +9910,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F268" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -9954,10 +9939,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F269" t="s">
-        <v>502</v>
+        <v>115</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -9983,10 +9968,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="F270" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10012,10 +9997,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F271" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10041,10 +10026,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F272" t="s">
-        <v>508</v>
+        <v>119</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10070,10 +10055,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F273" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10099,10 +10084,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F274" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10128,10 +10113,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F275" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10157,10 +10142,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F276" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10186,10 +10171,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F277" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10215,10 +10200,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F278" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10244,10 +10229,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
+        <v>94</v>
+      </c>
+      <c r="F279" t="s">
         <v>95</v>
-      </c>
-      <c r="F279" t="s">
-        <v>96</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10273,10 +10258,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="F280" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="G280" t="n">
         <v>1</v>
@@ -10302,10 +10287,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F281" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10331,10 +10316,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="F282" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10360,10 +10345,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="F283" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10389,10 +10374,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="F284" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10418,10 +10403,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
+        <v>116</v>
+      </c>
+      <c r="F285" t="s">
         <v>117</v>
-      </c>
-      <c r="F285" t="s">
-        <v>118</v>
       </c>
       <c r="G285" t="n">
         <v>2</v>
@@ -10447,10 +10432,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="F286" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G286" t="n">
         <v>2</v>
@@ -10476,10 +10461,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="F287" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G287" t="n">
         <v>2</v>
@@ -10505,10 +10490,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="F288" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -10534,10 +10519,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F289" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -10563,10 +10548,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="F290" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -10592,10 +10577,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F291" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -10621,10 +10606,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="F292" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -10650,10 +10635,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="F293" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -10679,10 +10664,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="F294" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -10708,10 +10693,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F295" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -10737,10 +10722,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="F296" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -10766,10 +10751,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F297" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -10795,10 +10780,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="F298" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -10824,10 +10809,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="F299" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -10853,10 +10838,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F300" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -10882,10 +10867,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F301" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -10911,10 +10896,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F302" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -10940,10 +10925,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F303" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -10969,10 +10954,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F304" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -10998,10 +10983,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="F305" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11027,10 +11012,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F306" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11056,10 +11041,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F307" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11085,10 +11070,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="F308" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11114,10 +11099,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F309" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11143,10 +11128,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F310" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11172,10 +11157,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="F311" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11201,10 +11186,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="F312" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="G312" t="n">
         <v>3</v>
@@ -11230,10 +11215,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="F313" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11259,10 +11244,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="F314" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11288,10 +11273,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="F315" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11317,10 +11302,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F316" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11346,10 +11331,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F317" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11375,10 +11360,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F318" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11404,10 +11389,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F319" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G319" t="n">
         <v>13</v>
@@ -11433,10 +11418,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="F320" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
